--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_5.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_1_5.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9835973286260006</v>
+        <v>0.9987480987112357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9829815232560338</v>
+        <v>0.9982358116019975</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9843580356024475</v>
+        <v>0.9988298860515115</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9756823208180595</v>
+        <v>0.9987160041055059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9819434967738936</v>
+        <v>0.9987766783470531</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01531117373356817</v>
+        <v>0.001168594900945977</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01588600101570042</v>
+        <v>0.001646792430614598</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01861315741959582</v>
+        <v>0.0008805458065036136</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02197392437014888</v>
+        <v>0.002043624460456691</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02029354089487235</v>
+        <v>0.001462085133480152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01456147710195643</v>
+        <v>0.004185886065864416</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1237383276659587</v>
+        <v>0.03418471735945723</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8687786290080046</v>
+        <v>0.9899847896898857</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1290061244483486</v>
+        <v>0.03564003154956968</v>
       </c>
       <c r="P2" t="n">
-        <v>50.35834481549268</v>
+        <v>55.50390638248087</v>
       </c>
       <c r="Q2" t="n">
-        <v>75.95473713772488</v>
+        <v>81.10029870471308</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9832785805356978</v>
+        <v>0.9987310920895214</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9826679259459867</v>
+        <v>0.9982279300899578</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9840679382668044</v>
+        <v>0.9988102654467967</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9752450409271981</v>
+        <v>0.9986943834028663</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9816141339034684</v>
+        <v>0.9987561052818978</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01560871108444167</v>
+        <v>0.00118446983581183</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01617873033929838</v>
+        <v>0.001654149476145322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01895835877909873</v>
+        <v>0.0008953108994460314</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02236905892137325</v>
+        <v>0.002078036250210876</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02066370885023599</v>
+        <v>0.001486673574828453</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01470295424789715</v>
+        <v>0.004212892671825135</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1249348273478683</v>
+        <v>0.03441612755398013</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8662286442855827</v>
+        <v>0.989848736716171</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1302535615988128</v>
+        <v>0.03588129335515856</v>
       </c>
       <c r="P3" t="n">
-        <v>50.31985223545335</v>
+        <v>55.4769200008917</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.91624455768556</v>
+        <v>81.0733123231239</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9829534423148157</v>
+        <v>0.9985777523451534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9823480010192663</v>
+        <v>0.998090767113309</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9837725414132632</v>
+        <v>0.9986226349788558</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9747985549877157</v>
+        <v>0.9985568561027302</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9812782646522494</v>
+        <v>0.9986054631732251</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01591221334171668</v>
+        <v>0.001327605756342513</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01647736621531064</v>
+        <v>0.001782185094088127</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01930986630056295</v>
+        <v>0.001036508448566014</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02277251223585756</v>
+        <v>0.002296926478555021</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02104118926821025</v>
+        <v>0.001666717463560518</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01484586256706077</v>
+        <v>0.004466922457497274</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1261436218828232</v>
+        <v>0.03643632468214258</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8636275385185259</v>
+        <v>0.9886220187612276</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1315138170196704</v>
+        <v>0.03798749445745146</v>
       </c>
       <c r="P4" t="n">
-        <v>50.28133665984252</v>
+        <v>55.24875628445319</v>
       </c>
       <c r="Q4" t="n">
-        <v>75.87772898207473</v>
+        <v>80.8451486066854</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9826217808821551</v>
+        <v>0.9985487024258031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9820216189513623</v>
+        <v>0.9980668660440307</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9834712419404813</v>
+        <v>0.998601259065134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9743432526717654</v>
+        <v>0.9985208099803684</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9809357263953709</v>
+        <v>0.9985747323574298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01622180473085097</v>
+        <v>0.001354722580911982</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01678202954918205</v>
+        <v>0.001804495693123681</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01966839764450394</v>
+        <v>0.001052594464130754</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02318393219832161</v>
+        <v>0.002354297952777669</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02142616492141278</v>
+        <v>0.001703446208454211</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01499023844905314</v>
+        <v>0.004510828946134571</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1273648488824564</v>
+        <v>0.03680655622184697</v>
       </c>
       <c r="N5" t="n">
-        <v>0.860974247057241</v>
+        <v>0.9883896194064246</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1327870341809664</v>
+        <v>0.038373487520286</v>
       </c>
       <c r="P5" t="n">
-        <v>50.2427979414213</v>
+        <v>55.20831716589271</v>
       </c>
       <c r="Q5" t="n">
-        <v>75.83919026365351</v>
+        <v>80.80470948812491</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9822834350768822</v>
+        <v>0.9985199527732839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9816886296978208</v>
+        <v>0.9980441783197139</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9831645920153317</v>
+        <v>0.9985757311176817</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9738780089166572</v>
+        <v>0.9984891058048614</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9805863591629873</v>
+        <v>0.998545585478965</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01653763568840892</v>
+        <v>0.001381559119574696</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01709286040082413</v>
+        <v>0.001825673687897419</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02003329575988444</v>
+        <v>0.001071805009485564</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02360433543713166</v>
+        <v>0.002404758728269741</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02181881559850805</v>
+        <v>0.001738281868877652</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01513604625090284</v>
+        <v>0.00455561227610943</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1285987390622821</v>
+        <v>0.03716933036220448</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8582674806150576</v>
+        <v>0.988159622186271</v>
       </c>
       <c r="O6" t="n">
-        <v>0.134073453620252</v>
+        <v>0.03875170570684452</v>
       </c>
       <c r="P6" t="n">
-        <v>50.20423308936454</v>
+        <v>55.16908524151972</v>
       </c>
       <c r="Q6" t="n">
-        <v>75.80062541159674</v>
+        <v>80.76547756375193</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9819382050462208</v>
+        <v>0.9984899208963297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9813487999570026</v>
+        <v>0.9980177798496499</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9828518659089075</v>
+        <v>0.9985502876193314</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9734034252915046</v>
+        <v>0.9984572706984992</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9802300205962112</v>
+        <v>0.9985163780066141</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01685989276818444</v>
+        <v>0.001409592558464419</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01741007654707621</v>
+        <v>0.001850315500943325</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02040542422790488</v>
+        <v>0.001090952004360836</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02403317836282327</v>
+        <v>0.002455427895003041</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02221930129536407</v>
+        <v>0.001773189949681938</v>
       </c>
       <c r="L7" t="n">
-        <v>0.01528340759613683</v>
+        <v>0.004601996408767442</v>
       </c>
       <c r="M7" t="n">
-        <v>0.129845649785368</v>
+        <v>0.03754454099419008</v>
       </c>
       <c r="N7" t="n">
-        <v>0.8555056403697661</v>
+        <v>0.9879193671706377</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1353734479142807</v>
+        <v>0.03914288983222684</v>
       </c>
       <c r="P7" t="n">
-        <v>50.16563537312012</v>
+        <v>55.12890916395749</v>
       </c>
       <c r="Q7" t="n">
-        <v>75.76202769535233</v>
+        <v>80.72530148618969</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9815860330495523</v>
+        <v>0.9984589742344426</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9810021005054372</v>
+        <v>0.9979911405260402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.982533289167412</v>
+        <v>0.9985248664977239</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9729187857462144</v>
+        <v>0.9984236064892709</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9798665422409991</v>
+        <v>0.9984859596733966</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01718862986851043</v>
+        <v>0.001438479908934518</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01773370526676545</v>
+        <v>0.001875182140201771</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02078451465983333</v>
+        <v>0.001110082160066599</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02447110801208442</v>
+        <v>0.002509008285498107</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02262781133595887</v>
+        <v>0.001809545222782353</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01543224346238076</v>
+        <v>0.004649389260086223</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1311054150998746</v>
+        <v>0.03792729767508513</v>
       </c>
       <c r="N8" t="n">
-        <v>0.8526882643964182</v>
+        <v>0.987671793875541</v>
       </c>
       <c r="O8" t="n">
-        <v>0.1366868440462996</v>
+        <v>0.03954194125744315</v>
       </c>
       <c r="P8" t="n">
-        <v>50.12701433582347</v>
+        <v>55.08833668349527</v>
       </c>
       <c r="Q8" t="n">
-        <v>75.72340665805568</v>
+        <v>80.68472900572748</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9812266452289223</v>
+        <v>0.9984282271845099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9806482555014283</v>
+        <v>0.9979638257450388</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9822085921088138</v>
+        <v>0.9984980836528876</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9724237104311018</v>
+        <v>0.9983918930386755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.979495628629333</v>
+        <v>0.9984564115527989</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01752410262376634</v>
+        <v>0.001467180930407306</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01806400404600719</v>
+        <v>0.001900679289286196</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02117088796383552</v>
+        <v>0.001130237053303514</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02491846762442318</v>
+        <v>0.002559483823340671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02304467779412935</v>
+        <v>0.001844860438322092</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0155826368020206</v>
+        <v>0.004696200990832646</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1323786335620909</v>
+        <v>0.0383037978587934</v>
       </c>
       <c r="N9" t="n">
-        <v>0.8498131618313787</v>
+        <v>0.9874258174760788</v>
       </c>
       <c r="O9" t="n">
-        <v>0.138014266054378</v>
+        <v>0.0399344698334347</v>
       </c>
       <c r="P9" t="n">
-        <v>50.0883561057275</v>
+        <v>55.04882490763055</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.6847484279597</v>
+        <v>80.64521722986277</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9808600529480419</v>
+        <v>0.9983966200144945</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9802872907588427</v>
+        <v>0.9979360780901086</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9818777028009071</v>
+        <v>0.9984709642126901</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9719187894469259</v>
+        <v>0.9983584408983728</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9791174789045076</v>
+        <v>0.9984255997613413</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01786630042642689</v>
+        <v>0.0014966848362222</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01840094878868992</v>
+        <v>0.001926580507182309</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02156462973564862</v>
+        <v>0.001150645244635221</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0253747239734017</v>
+        <v>0.002612726682192778</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02346967685452516</v>
+        <v>0.001881685963414</v>
       </c>
       <c r="L10" t="n">
-        <v>0.01573457076043286</v>
+        <v>0.004743747221850861</v>
       </c>
       <c r="M10" t="n">
-        <v>0.133664881051183</v>
+        <v>0.03868701120818459</v>
       </c>
       <c r="N10" t="n">
-        <v>0.8468804235843352</v>
+        <v>0.9871729601159558</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1393552717619801</v>
+        <v>0.04033399736847047</v>
       </c>
       <c r="P10" t="n">
-        <v>50.04967799660894</v>
+        <v>55.00900545190988</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.64607031884114</v>
+        <v>80.60539777414209</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9804858829418531</v>
+        <v>0.9983650224073984</v>
       </c>
       <c r="C11" t="n">
-        <v>0.979918801966943</v>
+        <v>0.9979077542186243</v>
       </c>
       <c r="D11" t="n">
-        <v>0.981539972864152</v>
+        <v>0.9984427327516114</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9714029725293764</v>
+        <v>0.9983264482661259</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9787313276104127</v>
+        <v>0.9983954096952158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01821557170303903</v>
+        <v>0.001526179815471715</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01874491690113967</v>
+        <v>0.001953019597938593</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02196651151458402</v>
+        <v>0.001171890264999597</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02584082609812639</v>
+        <v>0.002663646569159913</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0239036688063552</v>
+        <v>0.001917768417079756</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01588811989459634</v>
+        <v>0.004790906760668285</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1349650758642362</v>
+        <v>0.0390663514481672</v>
       </c>
       <c r="N11" t="n">
-        <v>0.843887063534825</v>
+        <v>0.9869201792591875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1407108185599993</v>
+        <v>0.04072948690781169</v>
       </c>
       <c r="P11" t="n">
-        <v>50.01095692525432</v>
+        <v>54.96997503709123</v>
       </c>
       <c r="Q11" t="n">
-        <v>75.60734924748652</v>
+        <v>80.56636735932344</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9801043151590687</v>
+        <v>0.9983315558126235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.97954296693075</v>
+        <v>0.9978773714964817</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9811961390317822</v>
+        <v>0.9984150177358032</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9708766554993404</v>
+        <v>0.9982914803208358</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9783377238871472</v>
+        <v>0.9983634011083015</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01857174847937838</v>
+        <v>0.001557419412680415</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01909574241017437</v>
+        <v>0.001981380535411381</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02237565662484171</v>
+        <v>0.001192746644823708</v>
       </c>
       <c r="J12" t="n">
-        <v>0.02631641632720219</v>
+        <v>0.002719302002820788</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02434603647602195</v>
+        <v>0.001956024323822248</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01604318454631706</v>
+        <v>0.004840325910439086</v>
       </c>
       <c r="M12" t="n">
-        <v>0.13627820251008</v>
+        <v>0.03946415351531583</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8408345212725497</v>
+        <v>0.9866524465009876</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1420798477257035</v>
+        <v>0.04114422423252264</v>
       </c>
       <c r="P12" t="n">
-        <v>49.9722275038351</v>
+        <v>54.92945010019699</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.56861982606731</v>
+        <v>80.52584242242921</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9797152071275314</v>
+        <v>0.9982981300721366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9791596622062047</v>
+        <v>0.997847685548939</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9808466373997876</v>
+        <v>0.9983861881596419</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9703389156783204</v>
+        <v>0.9982566539089766</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9779365276776967</v>
+        <v>0.9983311358757411</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01893496374694991</v>
+        <v>0.001588620874204448</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01945354054540473</v>
+        <v>0.00200909106438004</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0227915461339457</v>
+        <v>0.001214441764709187</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02680232841073222</v>
+        <v>0.002774732170043796</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02479693727233896</v>
+        <v>0.001994586967376491</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01619973808059181</v>
+        <v>0.004889096774126957</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1376043740109663</v>
+        <v>0.03985750712481211</v>
       </c>
       <c r="N13" t="n">
-        <v>0.8377216570202508</v>
+        <v>0.9863850405770931</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1434624770929361</v>
+        <v>0.04155432371952939</v>
       </c>
       <c r="P13" t="n">
-        <v>49.93349026447089</v>
+        <v>54.88977802770258</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.5298825867031</v>
+        <v>80.48617034993478</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9793179662318592</v>
+        <v>0.9982642622462312</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9787682722285551</v>
+        <v>0.9978172711399182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9804893901535686</v>
+        <v>0.9983560433574293</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9697901102862524</v>
+        <v>0.9982221049580413</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9775267826148674</v>
+        <v>0.9982986413311593</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01930577068619981</v>
+        <v>0.001620235003061378</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01981888590950607</v>
+        <v>0.002037481580162683</v>
       </c>
       <c r="I14" t="n">
-        <v>0.02321665253762932</v>
+        <v>0.001237126631606466</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02729823955788593</v>
+        <v>0.002829720726874181</v>
       </c>
       <c r="K14" t="n">
-        <v>0.02525744604775763</v>
+        <v>0.002033423679240324</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01635799803499676</v>
+        <v>0.004937984124180256</v>
       </c>
       <c r="M14" t="n">
-        <v>0.1389452074963358</v>
+        <v>0.04025214283813196</v>
       </c>
       <c r="N14" t="n">
-        <v>0.8345437298548735</v>
+        <v>0.9861140979698497</v>
       </c>
       <c r="O14" t="n">
-        <v>0.1448603926356856</v>
+        <v>0.04196575989217383</v>
       </c>
       <c r="P14" t="n">
-        <v>49.89470245695542</v>
+        <v>54.85036815328084</v>
       </c>
       <c r="Q14" t="n">
-        <v>75.49109477918762</v>
+        <v>80.44676047551305</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9789127318795761</v>
+        <v>0.9982292434942307</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9783689878580637</v>
+        <v>0.9977861417336982</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9801259505251202</v>
+        <v>0.9983259995536112</v>
       </c>
       <c r="E15" t="n">
-        <v>0.969229362056548</v>
+        <v>0.9981853043288866</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9771089582965137</v>
+        <v>0.9982646793061606</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01968403916632382</v>
+        <v>0.00165292347090836</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02019160034280156</v>
+        <v>0.002066539514446086</v>
       </c>
       <c r="I15" t="n">
-        <v>0.02364912756729303</v>
+        <v>0.001259735494185717</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0278049424836886</v>
+        <v>0.00288829308386019</v>
       </c>
       <c r="K15" t="n">
-        <v>0.02572703502549081</v>
+        <v>0.002074014289022954</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01651788402344793</v>
+        <v>0.004988051377880586</v>
       </c>
       <c r="M15" t="n">
-        <v>0.1402998188392409</v>
+        <v>0.04065616153682441</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8313018550366085</v>
+        <v>0.9858339479538456</v>
       </c>
       <c r="O15" t="n">
-        <v>0.1462726725878903</v>
+        <v>0.04238697850330361</v>
       </c>
       <c r="P15" t="n">
-        <v>49.85589433245215</v>
+        <v>54.81041951661225</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.45228665468436</v>
+        <v>80.40681183884445</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9784992916711661</v>
+        <v>0.9981956535212815</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9779615451532452</v>
+        <v>0.9977570161776833</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9797554826442653</v>
+        <v>0.9982951027685874</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9686569302155686</v>
+        <v>0.9981488274773003</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9766827164327593</v>
+        <v>0.9982306643327621</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02006996745294681</v>
+        <v>0.001684278236226998</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02057193022308199</v>
+        <v>0.002093726942521835</v>
       </c>
       <c r="I16" t="n">
-        <v>0.02408996586675462</v>
+        <v>0.001282986250680298</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0283222029461955</v>
+        <v>0.002946350112283702</v>
       </c>
       <c r="K16" t="n">
-        <v>0.02620608440647507</v>
+        <v>0.002114668181482</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01667939554787802</v>
+        <v>0.005034479136718725</v>
       </c>
       <c r="M16" t="n">
-        <v>0.141668512567002</v>
+        <v>0.04103995901833966</v>
       </c>
       <c r="N16" t="n">
-        <v>0.8279943333693289</v>
+        <v>0.9855652281702518</v>
       </c>
       <c r="O16" t="n">
-        <v>0.1476996344412288</v>
+        <v>0.04278711503817727</v>
       </c>
       <c r="P16" t="n">
-        <v>49.81706147570399</v>
+        <v>54.77283630679436</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.4134537979362</v>
+        <v>80.36922862902657</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9780775368215938</v>
+        <v>0.9981593450966348</v>
       </c>
       <c r="C17" t="n">
-        <v>0.977545877995869</v>
+        <v>0.9977253431861838</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9793778651568394</v>
+        <v>0.9982636186218252</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9680726124714002</v>
+        <v>0.9981105652894249</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9762479114577571</v>
+        <v>0.9981952756827668</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02046365709212425</v>
+        <v>0.001718170556879006</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02095993726881317</v>
+        <v>0.002123292289802944</v>
       </c>
       <c r="I17" t="n">
-        <v>0.02453931184141681</v>
+        <v>0.001306679014482102</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02885020374028558</v>
+        <v>0.003007248705019048</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02669475779085119</v>
+        <v>0.002156963859750575</v>
       </c>
       <c r="L17" t="n">
-        <v>0.01684256922621701</v>
+        <v>0.005085178741885607</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1430512393938768</v>
+        <v>0.0414508209433662</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8246202945727505</v>
+        <v>0.9852747607730787</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1491412268117628</v>
+        <v>0.04321546820595363</v>
       </c>
       <c r="P17" t="n">
-        <v>49.77820958185158</v>
+        <v>54.73299036786759</v>
       </c>
       <c r="Q17" t="n">
-        <v>75.37460190408379</v>
+        <v>80.32938269009979</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9776471600340342</v>
+        <v>0.9981227027912161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.977121682624659</v>
+        <v>0.9976922188699848</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9789929126038802</v>
+        <v>0.9982318614103322</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9674759243401496</v>
+        <v>0.9980722732511003</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9758042504267589</v>
+        <v>0.9981597811907557</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02086539493195357</v>
+        <v>0.001752374540576086</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02135590502781281</v>
+        <v>0.002154212384985281</v>
       </c>
       <c r="I18" t="n">
-        <v>0.02499738617819431</v>
+        <v>0.001330577267675815</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02938938265495782</v>
+        <v>0.003068194808115329</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02719338441657607</v>
+        <v>0.002199386037895572</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01700744184496234</v>
+        <v>0.005135954636350053</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1444485892349024</v>
+        <v>0.0418613728940665</v>
       </c>
       <c r="N18" t="n">
-        <v>0.8211772802722734</v>
+        <v>0.9849816223297285</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1505980647284338</v>
+        <v>0.04364349820315495</v>
       </c>
       <c r="P18" t="n">
-        <v>49.73932647430897</v>
+        <v>54.69356706089551</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.33571879654117</v>
+        <v>80.28995938312771</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9772082261030089</v>
+        <v>0.9980847872397492</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9766889472762719</v>
+        <v>0.9976587001839663</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9786013798233626</v>
+        <v>0.998200706999345</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9668663857168996</v>
+        <v>0.9980314810542338</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9753519399378604</v>
+        <v>0.9981228117452181</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02127512048959284</v>
+        <v>0.001787767043570015</v>
       </c>
       <c r="H19" t="n">
-        <v>0.02175984448064574</v>
+        <v>0.002185500607083302</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02546329065754767</v>
+        <v>0.001354021895427031</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02994017352228394</v>
+        <v>0.003133120195859609</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0277017320899158</v>
+        <v>0.00224357104564332</v>
       </c>
       <c r="L19" t="n">
-        <v>0.01717394024743218</v>
+        <v>0.005188044869690803</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1458599344905682</v>
+        <v>0.04228199431874063</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8176658088240716</v>
+        <v>0.984678297917994</v>
       </c>
       <c r="O19" t="n">
-        <v>0.1520694938735207</v>
+        <v>0.04408202635268383</v>
       </c>
       <c r="P19" t="n">
-        <v>49.70043388220623</v>
+        <v>54.65357579910046</v>
       </c>
       <c r="Q19" t="n">
-        <v>75.29682620443843</v>
+        <v>80.24996812133267</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9767603502659881</v>
+        <v>0.9980465146229414</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9762473564116768</v>
+        <v>0.9976242359644514</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9782022297877223</v>
+        <v>0.99816810344285</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9662436514688471</v>
+        <v>0.9979913979186605</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9748902922554257</v>
+        <v>0.9980858582076687</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02169319292397475</v>
+        <v>0.001823492851386463</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02217205016914661</v>
+        <v>0.00221767144319604</v>
       </c>
       <c r="I20" t="n">
-        <v>0.02593825929055222</v>
+        <v>0.001378557048593829</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03050288821092793</v>
+        <v>0.003196917032485297</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02822057375074008</v>
+        <v>0.002287737040539563</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01734215342748495</v>
+        <v>0.005240144045971638</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1472860920928203</v>
+        <v>0.04270237524291199</v>
       </c>
       <c r="N20" t="n">
-        <v>0.8140828021279045</v>
+        <v>0.9843721169835309</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1535563659574539</v>
+        <v>0.04452030376310564</v>
       </c>
       <c r="P20" t="n">
-        <v>49.66151351557236</v>
+        <v>54.61400293598776</v>
       </c>
       <c r="Q20" t="n">
-        <v>75.25790583780456</v>
+        <v>80.21039525821996</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9763034271066987</v>
+        <v>0.9979269079774513</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9757968222610814</v>
+        <v>0.9975162800855826</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9777957962456577</v>
+        <v>0.9980642626480364</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9656077249093606</v>
+        <v>0.9978674067762245</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9744194853941998</v>
+        <v>0.9979706077638735</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02211971063656265</v>
+        <v>0.001935140404826434</v>
       </c>
       <c r="H21" t="n">
-        <v>0.02259260402256377</v>
+        <v>0.002318443517404658</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0264218949329038</v>
+        <v>0.0014567003580854</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03107752372686571</v>
+        <v>0.00339426293728837</v>
       </c>
       <c r="K21" t="n">
-        <v>0.02874970932988476</v>
+        <v>0.002425481647686885</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01751209279834645</v>
+        <v>0.005399643098489382</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1487269667429638</v>
+        <v>0.04399023078851069</v>
       </c>
       <c r="N21" t="n">
-        <v>0.8104274168535897</v>
+        <v>0.9834152638196105</v>
       </c>
       <c r="O21" t="n">
-        <v>0.1550585816244757</v>
+        <v>0.04586298598550898</v>
       </c>
       <c r="P21" t="n">
-        <v>49.62257236788657</v>
+        <v>54.49515078899795</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.21896469011878</v>
+        <v>80.09154311123015</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9758369930524435</v>
+        <v>0.9973489749902905</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9753368169195545</v>
+        <v>0.9969871184678963</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9773805969254657</v>
+        <v>0.9975178464750658</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9649587338006468</v>
+        <v>0.9972902515766452</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9739387860174792</v>
+        <v>0.997414287270102</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02255510635212124</v>
+        <v>0.002474615480014867</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02302199881697831</v>
+        <v>0.002812392660004244</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02691596141399441</v>
+        <v>0.001867894900579795</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03166396462170105</v>
+        <v>0.004312870612279955</v>
       </c>
       <c r="K22" t="n">
-        <v>0.02928996301784773</v>
+        <v>0.003090382756429875</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01768390468781447</v>
+        <v>0.006116574432820695</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1501835755071814</v>
+        <v>0.04974550713396002</v>
       </c>
       <c r="N22" t="n">
-        <v>0.8066959444195483</v>
+        <v>0.9787917999223241</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1565772012393818</v>
+        <v>0.05186327636004853</v>
       </c>
       <c r="P22" t="n">
-        <v>49.58358758579616</v>
+        <v>54.00334051328301</v>
       </c>
       <c r="Q22" t="n">
-        <v>75.17997990802837</v>
+        <v>79.59973283551521</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.97536126805593</v>
+        <v>0.9972954824499821</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9748675445063273</v>
+        <v>0.9969384470929992</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9769577718306177</v>
+        <v>0.9974703017036325</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9642957550045252</v>
+        <v>0.9972348228657645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9734484265240471</v>
+        <v>0.997362412115631</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02299917475445259</v>
+        <v>0.002524548418341682</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02346004401604766</v>
+        <v>0.002857825252044321</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02741910218655568</v>
+        <v>0.001903673765673123</v>
       </c>
       <c r="J23" t="n">
-        <v>0.03226304506091522</v>
+        <v>0.004401091664896356</v>
       </c>
       <c r="K23" t="n">
-        <v>0.02984107362373545</v>
+        <v>0.003152382715284739</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01785738614294671</v>
+        <v>0.006178336405541208</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1516547881026266</v>
+        <v>0.05024488449923715</v>
       </c>
       <c r="N23" t="n">
-        <v>0.8028901444474403</v>
+        <v>0.9783638595998569</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1581110464008451</v>
+        <v>0.05238391325361916</v>
       </c>
       <c r="P23" t="n">
-        <v>49.54459388787578</v>
+        <v>53.96338615294093</v>
       </c>
       <c r="Q23" t="n">
-        <v>75.14098621010798</v>
+        <v>79.55977847517313</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9748758035820506</v>
+        <v>0.9972421764743307</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9743886144884513</v>
+        <v>0.9968886988481208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9765275111125541</v>
+        <v>0.9974215381444731</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9636181946637663</v>
+        <v>0.9971814988120664</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9729482688444034</v>
+        <v>0.997311554645809</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0234523345313915</v>
+        <v>0.002574307206750311</v>
       </c>
       <c r="H24" t="n">
-        <v>0.02390710416513686</v>
+        <v>0.002904263054942731</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02793109097985844</v>
+        <v>0.001940369805048967</v>
       </c>
       <c r="J24" t="n">
-        <v>0.03287530166536571</v>
+        <v>0.004485962917939585</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03040319632261207</v>
+        <v>0.003213166361494276</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01803268887475891</v>
+        <v>0.006239470144686605</v>
       </c>
       <c r="M24" t="n">
-        <v>0.15314155063663</v>
+        <v>0.0507376310715263</v>
       </c>
       <c r="N24" t="n">
-        <v>0.7990064286564049</v>
+        <v>0.9779374117946453</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1596611034939437</v>
+        <v>0.05289763706761668</v>
       </c>
       <c r="P24" t="n">
-        <v>49.50557047093503</v>
+        <v>53.92434965397599</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.10196279316723</v>
+        <v>79.5207419762082</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9743805186828762</v>
+        <v>0.9971864350815889</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9738999510206571</v>
+        <v>0.9968384728865153</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9760893493966205</v>
+        <v>0.9973709665202783</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9629256134846204</v>
+        <v>0.9971224772798881</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9724378900162834</v>
+        <v>0.9972563343037973</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02391466124427636</v>
+        <v>0.002626339350110478</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02436325006247549</v>
+        <v>0.002951146785436603</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02845248156652851</v>
+        <v>0.001978426467539192</v>
       </c>
       <c r="J25" t="n">
-        <v>0.03350113138936519</v>
+        <v>0.004579902351368034</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03097680647794685</v>
+        <v>0.003279164409453613</v>
       </c>
       <c r="L25" t="n">
-        <v>0.01820978645456163</v>
+        <v>0.006302183174025366</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1546436589203591</v>
+        <v>0.05124782288166472</v>
       </c>
       <c r="N25" t="n">
-        <v>0.7950441494630098</v>
+        <v>0.9774914806527111</v>
       </c>
       <c r="O25" t="n">
-        <v>0.161227159637104</v>
+        <v>0.05342954879935533</v>
       </c>
       <c r="P25" t="n">
-        <v>49.46652713387938</v>
+        <v>53.88432856889479</v>
       </c>
       <c r="Q25" t="n">
-        <v>75.06291945611159</v>
+        <v>79.48072089112699</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9738752296646869</v>
+        <v>0.9971301987849456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9734013635386537</v>
+        <v>0.9967869400011589</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9756429973323569</v>
+        <v>0.9973194880980353</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9622184728517679</v>
+        <v>0.997065124959018</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9719173223397464</v>
+        <v>0.9972019399259019</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02438632636313161</v>
+        <v>0.0026788334645389</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02482865959146466</v>
+        <v>0.002999250471884504</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02898361825918072</v>
+        <v>0.00201716552273136</v>
       </c>
       <c r="J26" t="n">
-        <v>0.03414011731680926</v>
+        <v>0.004671185046504959</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03156186778799499</v>
+        <v>0.003344175284618159</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01838866916831947</v>
+        <v>0.006365268618727798</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1561612191394893</v>
+        <v>0.05175744839671775</v>
       </c>
       <c r="N26" t="n">
-        <v>0.791001837317495</v>
+        <v>0.9770415902795646</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1628093255365453</v>
+        <v>0.05396087012765442</v>
       </c>
       <c r="P26" t="n">
-        <v>49.42746539743308</v>
+        <v>53.84474770728913</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.02385771966529</v>
+        <v>79.44114002952134</v>
       </c>
     </row>
   </sheetData>
